--- a/assets/templates/csv excel format/ICT_BSCS_Test.xlsx
+++ b/assets/templates/csv excel format/ICT_BSCS_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\OnlineClearanceWebsite\assets\templates\csv excel format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85AA7CD-A7C1-440F-A127-E9AE40619449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A218797E-9FB8-4E8E-A0D0-B8373E17BD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D53678BB-383C-4825-9D07-FA277FBC27DF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9420" xr2:uid="{7D73B4CE-2E72-49DB-9985-22AC5D9E7A3C}"/>
   </bookViews>
   <sheets>
     <sheet name="ICT_BSCS_Test" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Student Number</t>
   </si>
@@ -67,10 +67,49 @@
     <t>3rd Year</t>
   </si>
   <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>zxc</t>
+  </si>
+  <si>
+    <t>dsa</t>
+  </si>
+  <si>
+    <t>2nd year</t>
+  </si>
+  <si>
+    <t>vbn</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>1st year</t>
+  </si>
+  <si>
+    <t>cxz</t>
+  </si>
+  <si>
+    <t>awd</t>
+  </si>
+  <si>
     <t>02000290002</t>
   </si>
   <si>
-    <t>2</t>
+    <t>02000280002</t>
+  </si>
+  <si>
+    <t>02000270002</t>
+  </si>
+  <si>
+    <t>02000260002</t>
+  </si>
+  <si>
+    <t>02000250002</t>
   </si>
 </sst>
 </file>
@@ -554,10 +593,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -912,57 +950,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D33975-3D38-4464-BDEB-15E9F5203AC0}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1055CE-7203-464E-A07D-5C0144889009}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" customWidth="1"/>
-    <col min="7" max="7" width="26.5546875" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -985,8 +1016,124 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
